--- a/Raw_data/clean_data_2024.xlsx
+++ b/Raw_data/clean_data_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivarl\Desktop\Dashboard-Regenerative-landbouw\Ruwe_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivarl\Desktop\Dashboard-Regenerative-landbouw\Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF3882-72D2-4D85-A2C3-4011A2140344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A332D-99EC-487B-AA52-1E1ACDC68DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>DS_perc</t>
   </si>
   <si>
-    <t>DS _ton_ha</t>
-  </si>
-  <si>
     <t>Ruw_eiwit</t>
   </si>
   <si>
@@ -144,7 +141,10 @@
     <t>CW_vert.</t>
   </si>
   <si>
-    <t>gewicht _t_h</t>
+    <t>Gewicht_T_H</t>
+  </si>
+  <si>
+    <t>DS_ton_ha</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>3</v>
@@ -1332,13 +1332,13 @@
         <v>9</v>
       </c>
       <c r="V1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="Y1" s="9" t="s">
         <v>10</v>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>12</v>
@@ -1362,19 +1362,19 @@
         <v>15</v>
       </c>
       <c r="AF1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
